--- a/00.기획서/1차 프로토 기획서/221016_호감도 정의 문서_V100.xlsx
+++ b/00.기획서/1차 프로토 기획서/221016_호감도 정의 문서_V100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\1차 프로토 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>다단 하락 시 늦게 발생한 감소 호감도가 일찍 발생한 감소 호감도를 덮어 씌우면서 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 스토리모드 내 상호작용의 목표를 달성했을 때</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,6 +220,10 @@
   </si>
   <si>
     <t xml:space="preserve">레벨 단계 마다 요구하는 호감도 수치 이상을 획득 했을 때, 레벨 상승 반영 후 차감된 수치 만큼 호감도 게이지에 반영한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 스토리모드 내 스테이지를 클리어 했을 때</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -854,7 +854,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -864,12 +864,12 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -877,42 +877,42 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
@@ -970,13 +970,13 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1192,17 +1192,17 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
@@ -1222,15 +1222,15 @@
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
         <v>17</v>
-      </c>
-      <c r="D66" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
@@ -1250,7 +1250,7 @@
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
